--- a/data/appcasedata.xlsx
+++ b/data/appcasedata.xlsx
@@ -4,27 +4,28 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="12480" tabRatio="500"/>
+    <workbookView windowWidth="28060" windowHeight="12480" tabRatio="500" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表2" sheetId="2" r:id="rId1"/>
-    <sheet name="工作表1" sheetId="1" r:id="rId2"/>
-    <sheet name="工作表4" sheetId="4" r:id="rId3"/>
-    <sheet name="single" sheetId="5" r:id="rId4"/>
-    <sheet name="工作表3" sheetId="6" r:id="rId5"/>
-    <sheet name="login" sheetId="7" r:id="rId6"/>
-    <sheet name="pc" sheetId="8" r:id="rId7"/>
-    <sheet name="duojia" sheetId="9" r:id="rId8"/>
-    <sheet name="newduojia" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="pc" sheetId="8" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId4"/>
+    <sheet name="工作表4" sheetId="4" r:id="rId5"/>
+    <sheet name="single" sheetId="5" r:id="rId6"/>
+    <sheet name="工作表3" sheetId="6" r:id="rId7"/>
+    <sheet name="login" sheetId="7" r:id="rId8"/>
+    <sheet name="duojia" sheetId="9" r:id="rId9"/>
+    <sheet name="newduojia" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272">
-  <si>
-    <t>no</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277">
+  <si>
+    <t>id</t>
   </si>
   <si>
     <t>projectname</t>
@@ -99,607 +100,25 @@
     <t>/yiiapp/home-config/lately-more-search-car</t>
   </si>
   <si>
-    <t>test_verify_code</t>
-  </si>
-  <si>
-    <t>https://www.zhbbroker.cn/yiiapp/system/send-verify-code</t>
-  </si>
-  <si>
-    <t>{"mobile": "17621100841", "verify": "330"}</t>
+    <t>assert_func</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>登录</t>
   </si>
   <si>
     <t>test_login</t>
   </si>
   <si>
-    <t>https://www.zhbbroker.cn/yiiapp/system/user-login</t>
-  </si>
-  <si>
-    <t>{"mobile": "17621100841", "verify_code": "9527"}</t>
-  </si>
-  <si>
-    <t>https://www.zhbbroker.cn/yiiapp/home-config/get-home-set</t>
-  </si>
-  <si>
-    <t>https://www.zhbbroker.cn/yiiapp/home-config/marquees</t>
-  </si>
-  <si>
-    <t>test_user_head_img</t>
-  </si>
-  <si>
-    <t>https://www.zhbbroker.cn/yiiapp/user/user-head-img</t>
-  </si>
-  <si>
-    <t>{"version":"3.8.0","user_id":"2200234"}</t>
-  </si>
-  <si>
-    <t>test_message_info</t>
-  </si>
-  <si>
-    <t>https://www.zhbbroker.cn/yiiapp/message/inform</t>
-  </si>
-  <si>
-    <t>test_mine_infp</t>
-  </si>
-  <si>
-    <t>https://www.zhbbroker.cn/yiiapp/user/mine-info</t>
-  </si>
-  <si>
-    <t>{"version":"3.8.0","last_access_replace_time":"2016-10-01 00:00:00"}</t>
-  </si>
-  <si>
-    <t>https://www.zhbbroker.cn/yiiapp/home-config/lately-more-search-car</t>
-  </si>
-  <si>
-    <t>test_model_info</t>
-  </si>
-  <si>
-    <t>https://www.zhbbroker.cn/yiiapp/car-info/query-model-info</t>
-  </si>
-  <si>
-    <t>{"version":"3.8.0","car_model_no":"荣威"}</t>
-  </si>
-  <si>
-    <t>test_record_common_car_info</t>
-  </si>
-  <si>
-    <t>https://www.zhbbroker.cn/yiiapp/car-info/record-common-car-info</t>
-  </si>
-  <si>
-    <t>{"version":"3.8.0","license_no":"沪A12345"}</t>
-  </si>
-  <si>
-    <t>https://www.zhbbroker.cn/yiiapp/home-config/get-start-pic</t>
-  </si>
-  <si>
-    <t>test_get_my_info</t>
-  </si>
-  <si>
-    <t>https://www.zhbbroker.cn/php2/user/get_my_info.php</t>
-  </si>
-  <si>
-    <t>test_get_refund_balance</t>
-  </si>
-  <si>
-    <t>https://www.zhbbroker.cn/php2/user_refund/get_refund_balance.php</t>
-  </si>
-  <si>
-    <t>test_daily_sign</t>
-  </si>
-  <si>
-    <t>https://www.zhbbroker.cn/yiiapp/user/integrity/daily-sign</t>
-  </si>
-  <si>
-    <t>宝贝任务</t>
-  </si>
-  <si>
-    <t>https://www.zhbbroker.cn/yiiapp/user/integrity/task-info</t>
-  </si>
-  <si>
-    <t>查询车辆信息</t>
-  </si>
-  <si>
-    <t>test_record_car_info</t>
-  </si>
-  <si>
-    <t>/yiiapp/car-info/record-common-car-info</t>
-  </si>
-  <si>
-    <t>{"version": "3.8.0","license_no": "皖B33823","province":"安徽","city":"合肥","provider":"official"}</t>
-  </si>
-  <si>
-    <t>根据品牌型号查询车辆</t>
-  </si>
-  <si>
-    <t>test_replenish_info</t>
-  </si>
-  <si>
-    <t>/yiiapp/car-info/replenish-info</t>
-  </si>
-  <si>
-    <t>{"version":"3.8.0","license_no":"皖B33823","is_new_car":"0","charged_matched":"0","owner_name":"静雅","reg_date":"2016-07-20","car_model_no":"大众FV7140BAMGG轿车","engine_no":"587463","frame_no":"UE84F55JFJ44FK4K1","selected_car_model_detail":{"engine_desc":"1.4L","gearbox_name":"手动档","market_date":"2013","price":67800,"standard_name":"大众FV7140BAMGG轿车","seat":5,"description":"大众FV7140BAMGG轿车 手动档 时尚型 国Ⅳ 1.4L 手动档 5座 2013款 参考价：￥67800.0","user_defined":"0"},"seat_num":"5","owner_id_no":"342425198101156924","insured_id_no":"","applicant_id_no":"","is_special_car":"0","is_loaned":"0","price":"6.78"}</t>
-  </si>
-  <si>
-    <t>更新车辆信息</t>
-  </si>
-  <si>
-    <t>test_upfate_car_info</t>
-  </si>
-  <si>
-    <t>/yiiapp/car-info/update</t>
-  </si>
-  <si>
-    <t>{"version":"3.8.0","car_id":"","license_no":"皖B33823","owner_name":"静雅","car_model_no":"大众FV7140BAMGG轿车","engine_no":"587463","selected_car_model_detail":{"engine_desc":"1.4L","gearbox_name":"手动档","market_date":"2013","price":67800,"standard_name":"大众FV7140BAMGG轿车","seat":5,"description":"大众FV7140BAMGG轿车 手动档 时尚型 国Ⅳ 1.4L 手动档 5座 2013款 参考价：￥67800.0","user_defined":"0"},"seat_num":"5","frame_no":"UE84F55JFJ44FK4K1","province":"安徽","city":"合肥","district":"","owner_id_no":"342425198101156924","owner_mobile": "15821732186","insured_name":"静雅","insured_mobile":"15821732186","insured_id_no":"342425198101156924","applicant_name":"静雅","applicant_mobile":"15821732186","applicant_id_no":"342425198101156924","is_special_car":"0","is_loaned":"0","reg_date":"2016-07-20","validate_start_date":"0"}</t>
-  </si>
-  <si>
-    <t>报价</t>
-  </si>
-  <si>
-    <t>test_record_price</t>
-  </si>
-  <si>
-    <t>/yiiapp/car-ins/record-price-info</t>
-  </si>
-  <si>
-    <t>{"version":"3.8.0","car_id":"","license_no":"皖B33823","frame_no":"UE84F55JFJ44FK4K1","insurance_company":"","post_time_stamp":"","force_only":"0","choose_force":"1","car_broken":"1","car_burn":"0","car_rob":"0","wade_water":"0","third_party":"500000","driver_seat":"10000","passenger_seat":"10000","glass_broken":"0","scratch":"0","specify_repair_factory":"0","find_no_third_party":"0","third_party_double_on_holiday":"0","non_deduct_car_broken":"1","non_deduct_car_rob":"0","non_deduct_driver_seat":"1","non_deduct_passenger_seat":"1","non_deduct_third_party":"1","non_deduct_scratch":"0","non_deduct_wade_water":"0","non_deduct_car_burn":"0","price_channel":"more"}</t>
-  </si>
-  <si>
-    <t>查找投保机构列表</t>
-  </si>
-  <si>
-    <t>test_price_configuration_merge</t>
-  </si>
-  <si>
-    <t>/yiiapp/car-ins/price-configuration-merge</t>
-  </si>
-  <si>
-    <t>{"version":"","province":"","city":""}</t>
+    <t>/yiiapp/user-pwd/user-pwd-login</t>
+  </si>
+  <si>
+    <t>{"mobile":"","pwd":"","password":"","login_type":""}</t>
   </si>
   <si>
     <t>return_code: "0</t>
-  </si>
-  <si>
-    <t>获取车辆信息</t>
-  </si>
-  <si>
-    <t>test_get_car_model_no_info</t>
-  </si>
-  <si>
-    <t>/yiiapp/car-info/get-car-model-no-info</t>
-  </si>
-  <si>
-    <t>{"version":"","car_model_no":"","insurance_company":"","provider":"","province":"","city":"","district":""}</t>
-  </si>
-  <si>
-    <t>添加/修改车辆信息</t>
-  </si>
-  <si>
-    <t>test_replenish_info_merge</t>
-  </si>
-  <si>
-    <t>/yiiapp/car-info/replenish-info-merge</t>
-  </si>
-  <si>
-    <t>{"version":"","is_new_car":"","add_only":"","license_no":"","car_model_no":"","selected_car_model_detail":"","engine_no":"","frame_no":"","seat_num":"","reg_date":"","owner_name":"","owner_id_no":"","owner_mobile":"","insured_name":"","insured_mobile":"","insured_id_no":"","applicant_name":"","applicant_mobile":"","applicant_id_no":"","is_special_car":"","is_loaned":"","beneficiary":"","price":"","insured_same_as_owner":"","applicant_same_as_owner":"","provider":"","insurance_company":"","province":"","city":"","district":"","com_id":""}</t>
-  </si>
-  <si>
-    <t>报价前更新车辆信息</t>
-  </si>
-  <si>
-    <t>test_update</t>
-  </si>
-  <si>
-    <t>{"version":"","gen_new_order":"","insurance_company":"","car_id":"","province":"","city":"","district":"","com_id":"","provider":"","order_id":"","ins_start_date":"","ins_start_hour":"","force_start_date":"","force_start_hour":"","user_ins_start_date_change":"","user_force_start_date_change":"","owner_name":"","owner_id_no":"","owner_mobile":"","insured_name":"","insured_mobile":"","insured_id_no":"","applicant_name":"","applicant_mobile":"","applicant_id_no":"","license_no":"","car_model_no":"","engine_no":"","selected_car_model_detail":"","seat_num":"","frame_no":"","is_special_car":"","is_loaned":"","reg_date":""}</t>
-  </si>
-  <si>
-    <t>test_record_price_info_merg</t>
-  </si>
-  <si>
-    <t>/yiiapp/car-ins/record-price-info-merge</t>
-  </si>
-  <si>
-    <t>{"version":"","product_source":"","order_id":"","provider":"","car_id":"","insurance_company":"","post_time_stamp":"","force_only":"","choose_force":"","car_broken":"","car_burn":"","car_rob":"","wade_water":"","third_party":"","driver_seat":"","passenger_seat":"","glass_broken":"","scratch":"","specify_repair_factory":"","find_no_third_party":"","third_party_double_on_holiday":"","non_deduct_car_broken":"","non_deduct_car_rob":"","non_deduct_driver_seat":"","non_deduct_passenger_seat":"","non_deduct_third_party":"","non_deduct_scratch":"","non_deduct_wade_water":"","non_deduct_car_burn":"","pay_tax":"","user_ins_start_date_change":"","user_force_start_date_change":"","ins_start_date":"","ins_start_hour":"","force_start_date":"","force_start_hour":"","price_channel":""}</t>
-  </si>
-  <si>
-    <t>订单查询</t>
-  </si>
-  <si>
-    <t>test_query_order_info</t>
-  </si>
-  <si>
-    <t>/yiiapp/car-ins/query-order-info</t>
-  </si>
-  <si>
-    <t>{"version":"","order_id":""}</t>
-  </si>
-  <si>
-    <t>配送地址查询</t>
-  </si>
-  <si>
-    <t>test_query_addr</t>
-  </si>
-  <si>
-    <t>/php2/addr/query_addr.php</t>
-  </si>
-  <si>
-    <t>{"version":""}</t>
-  </si>
-  <si>
-    <t>记录被保人地址</t>
-  </si>
-  <si>
-    <t>test_save_insured_address</t>
-  </si>
-  <si>
-    <t>/yiiapp/car-ins/save-insured-address</t>
-  </si>
-  <si>
-    <t>{"insured_province":"","insured_city":"","insured_district":"","insured_detail":"","owner_name":"","owner_id_no":"","license_no":"","frame_no":""}</t>
-  </si>
-  <si>
-    <t>添加寄送地址</t>
-  </si>
-  <si>
-    <t>test_address</t>
-  </si>
-  <si>
-    <t>/php2/addr/add_addr.php</t>
-  </si>
-  <si>
-    <t>{"version":"","addressee_province":"","addressee_city":"","addressee_area":"","addressee_detail":"","addressee_name":"","addressee_mobile":""}</t>
-  </si>
-  <si>
-    <t>设置地址为默认地址</t>
-  </si>
-  <si>
-    <t>test_set_addr</t>
-  </si>
-  <si>
-    <t>/php2/addr/set_def_addr.php</t>
-  </si>
-  <si>
-    <t>{"version":"","id":""}</t>
-  </si>
-  <si>
-    <t>核保</t>
-  </si>
-  <si>
-    <t>test_place_order</t>
-  </si>
-  <si>
-    <t>/yiiapp/car-ins/place-order/1.1</t>
-  </si>
-  <si>
-    <t>{"version":"","order_id":"","is_self_fetch":"","has_addressee_info":"","addressee_name":"","addressee_mobile":"","addressee_province":"","addressee_city":"","addressee_area":"","addressee_detail":"","insured_province":"","insured_city":"","insured_district":"","insured_detail":""}</t>
-  </si>
-  <si>
-    <t>单交强</t>
-  </si>
-  <si>
-    <t>test_price_ins</t>
-  </si>
-  <si>
-    <t>{"version":"","product_source":"","provider":"","car_id":"","insurance_company":"","post_time_stamp":"","force_only":"","choose_force":"","pay_tax":"","user_ins_start_date_change":"","user_force_start_date_change":"","ins_start_date":"","ins_start_hour":"","force_start_date":"","force_start_hour":"","price_channel":""}</t>
-  </si>
-  <si>
-    <t>frame_no</t>
-  </si>
-  <si>
-    <t>LSVNU2185DN092075</t>
-  </si>
-  <si>
-    <t>LVSHJCAC1EE723699</t>
-  </si>
-  <si>
-    <t>LFV2B11K7D3560457</t>
-  </si>
-  <si>
-    <t>LBEMCACAXAX205186</t>
-  </si>
-  <si>
-    <t>LDC643T20E3097716</t>
-  </si>
-  <si>
-    <t>LGXC14AA4A1112355</t>
-  </si>
-  <si>
-    <t>LDCC13L36C1215314</t>
-  </si>
-  <si>
-    <t>LS5A3BBD9CA520460</t>
-  </si>
-  <si>
-    <t>LS5A2BBR3DH039708</t>
-  </si>
-  <si>
-    <t>LVSFCFAE58F289791</t>
-  </si>
-  <si>
-    <t>LH16C2MF4BH038346</t>
-  </si>
-  <si>
-    <t>LS4AAB3D5BA064304</t>
-  </si>
-  <si>
-    <t>LSGJB84J5FY264135</t>
-  </si>
-  <si>
-    <t>LBELMBKCXEY523777</t>
-  </si>
-  <si>
-    <t>LSGJM84J0FY026753</t>
-  </si>
-  <si>
-    <t>LGBH52E05FY386829</t>
-  </si>
-  <si>
-    <t>LFV3B28R7F3059780</t>
-  </si>
-  <si>
-    <t>LGBL2AE05AY081840</t>
-  </si>
-  <si>
-    <t>LFV2A11K9E4182026</t>
-  </si>
-  <si>
-    <t>LBEMDAEC0EZ430819</t>
-  </si>
-  <si>
-    <t>LWVAA1566DA035204</t>
-  </si>
-  <si>
-    <t>LS4BDB3D29F046741</t>
-  </si>
-  <si>
-    <t>LSGJA52U3BS215771</t>
-  </si>
-  <si>
-    <t>LVVDC11B99D224345</t>
-  </si>
-  <si>
-    <t>LBERCADB4BX104711</t>
-  </si>
-  <si>
-    <t>LGBH12E239Y011734</t>
-  </si>
-  <si>
-    <t>LS5A3ABD9CB097139</t>
-  </si>
-  <si>
-    <t>LDC643T2XE3148011</t>
-  </si>
-  <si>
-    <t>LVSHCAAE1CF311371</t>
-  </si>
-  <si>
-    <t>3C4PDCFB9DT652248</t>
-  </si>
-  <si>
-    <t>LFV2A21K1G4209132</t>
-  </si>
-  <si>
-    <t>LB37422S5AL017301</t>
-  </si>
-  <si>
-    <t>LSVNV4183E2159090</t>
-  </si>
-  <si>
-    <t>LFV2A2156F3071344</t>
-  </si>
-  <si>
-    <t>LS5A3DBE6FA089004</t>
-  </si>
-  <si>
-    <t>LVSHJCAL9FE241337</t>
-  </si>
-  <si>
-    <t>LSVUH65N4C2111707</t>
-  </si>
-  <si>
-    <t>LSGBC534XGG168763</t>
-  </si>
-  <si>
-    <t>LSVNV4184F2109185</t>
-  </si>
-  <si>
-    <t>LSGGG54E1FS100459</t>
-  </si>
-  <si>
-    <t>LE4GF4HB1DL244524</t>
-  </si>
-  <si>
-    <t>LHGGK5875G2028999</t>
-  </si>
-  <si>
-    <t>LVHRM4889C5110901</t>
-  </si>
-  <si>
-    <t>LBERCBCB4FX057676</t>
-  </si>
-  <si>
-    <t>LSYYBACA5AC092228</t>
-  </si>
-  <si>
-    <t>LWVAA1566EA067197</t>
-  </si>
-  <si>
-    <t>LDC953T27G1500163</t>
-  </si>
-  <si>
-    <t>LFV3A23CXF3076191</t>
-  </si>
-  <si>
-    <t>LVRHDFML8FN375035</t>
-  </si>
-  <si>
-    <t>LGG8D2D15FZ404005</t>
-  </si>
-  <si>
-    <t>LNBMDLAA1FU111918</t>
-  </si>
-  <si>
-    <t>LGBH72E01GY061283</t>
-  </si>
-  <si>
-    <t>LDC643T26G3504912</t>
-  </si>
-  <si>
-    <t>LVRHDFAL1GN520034</t>
-  </si>
-  <si>
-    <t>LGBH52E09EY235328</t>
-  </si>
-  <si>
-    <t>LSJA16E37EG063066</t>
-  </si>
-  <si>
-    <t>LSGJA52H2DH149457</t>
-  </si>
-  <si>
-    <t>LSGPC54R1BF077475</t>
-  </si>
-  <si>
-    <t>LVVDB11B0AD261274</t>
-  </si>
-  <si>
-    <t>LVSHBFAF18F039467</t>
-  </si>
-  <si>
-    <t>L6T7824S2GN035894</t>
-  </si>
-  <si>
-    <t>LNBSCBAF7ER402201</t>
-  </si>
-  <si>
-    <t>LZWACAGA0A7128938</t>
-  </si>
-  <si>
-    <t>LZWACAGA2D6021738</t>
-  </si>
-  <si>
-    <t>LSVNV4180DN089013</t>
-  </si>
-  <si>
-    <t>LGBK22E74AY126037</t>
-  </si>
-  <si>
-    <t>LFV2A2152F3107109</t>
-  </si>
-  <si>
-    <t>LS5A3DDE6GA023227</t>
-  </si>
-  <si>
-    <t>LFV2A2158F3110726</t>
-  </si>
-  <si>
-    <t>LSVCS6A47EN124592</t>
-  </si>
-  <si>
-    <t>LVSHCAMB1EE741654</t>
-  </si>
-  <si>
-    <t>LGB1AAE32AZ032495</t>
-  </si>
-  <si>
-    <t>LS5A3BBD1AA519915</t>
-  </si>
-  <si>
-    <t>LSGKE52HXFW097955</t>
-  </si>
-  <si>
-    <t>LBV5S1100ESH69176</t>
-  </si>
-  <si>
-    <t>LFMARE2C290216585</t>
-  </si>
-  <si>
-    <t>LFV2A1BS8F4590372</t>
-  </si>
-  <si>
-    <t>WBA1A3108EP614338</t>
-  </si>
-  <si>
-    <t>LBVHZ110XHMG34093</t>
-  </si>
-  <si>
-    <t>LVRFFAML5EN582100</t>
-  </si>
-  <si>
-    <t>LGBP12E04BY040241</t>
-  </si>
-  <si>
-    <t>LVHRU184XG6028851</t>
-  </si>
-  <si>
-    <t>LBERCACBXGX038528</t>
-  </si>
-  <si>
-    <t>LDC933L28B1666125</t>
-  </si>
-  <si>
-    <t>LDC923L2260394153</t>
-  </si>
-  <si>
-    <t>LJ12EKR22G4012790</t>
-  </si>
-  <si>
-    <t>LS5A3ADE59B099680</t>
-  </si>
-  <si>
-    <t>LZWACAGA6A8158861</t>
-  </si>
-  <si>
-    <t>LSGSA52S2ED273320</t>
-  </si>
-  <si>
-    <t>LS5A2ABR1DH041094</t>
-  </si>
-  <si>
-    <t>LVVDB11B0GE023122</t>
-  </si>
-  <si>
-    <t>LVGBH42K2DG749965</t>
-  </si>
-  <si>
-    <t>LBERCACB5FX888436</t>
-  </si>
-  <si>
-    <t>LJ12EKR28F4839885</t>
-  </si>
-  <si>
-    <t>LH17CKJF44H029075</t>
-  </si>
-  <si>
-    <t>LVSHJCAB6EE745639</t>
-  </si>
-  <si>
-    <t>LSYYBACA48K002874</t>
-  </si>
-  <si>
-    <t>LS5A33BW4AB070375</t>
-  </si>
-  <si>
-    <t>LGBH12E24CY139178</t>
-  </si>
-  <si>
-    <t>LFMAP86C7F0533226</t>
-  </si>
-  <si>
-    <t>/yiiapp/system/user-login</t>
-  </si>
-  <si>
-    <t>{"mobile": "10000000134", "verify_code": "9527"}</t>
-  </si>
-  <si>
-    <t>test_login_nullcode</t>
-  </si>
-  <si>
-    <t>{"mobile": "10000000134", "verify_code": ""}</t>
-  </si>
-  <si>
-    <t>test_login_errorcode</t>
-  </si>
-  <si>
-    <t>{"mobile": "10000000134", "verify_code": "9537"}</t>
   </si>
   <si>
     <t>test_need_record</t>
@@ -743,13 +162,22 @@
     <t>/yiio2o/pc/car-ins-field-config</t>
   </si>
   <si>
-    <t>pc</t>
+    <t>获取车辆信息</t>
+  </si>
+  <si>
+    <t>test_get_car_model_no_info</t>
   </si>
   <si>
     <t>/yiio2o/car-info/query-model-info</t>
   </si>
   <si>
     <t>{"frame_no":"","car_model_no":"","insurance_company":"","provider":"","province":"","city":"","district":"","department":""}</t>
+  </si>
+  <si>
+    <t>报价</t>
+  </si>
+  <si>
+    <t>test_record_price_info_merg</t>
   </si>
   <si>
     <t>/yiio2o/pc/price-policy</t>
@@ -873,6 +301,594 @@
     <t>{"order_id":"","isTwice":"","insurance_company":"","image_info":"","special_deal":""}</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>test_verify_code</t>
+  </si>
+  <si>
+    <t>https://www.zhbbroker.cn/yiiapp/system/send-verify-code</t>
+  </si>
+  <si>
+    <t>{"mobile": "17621100841", "verify": "330"}</t>
+  </si>
+  <si>
+    <t>https://www.zhbbroker.cn/yiiapp/system/user-login</t>
+  </si>
+  <si>
+    <t>{"mobile": "17621100841", "verify_code": "9527"}</t>
+  </si>
+  <si>
+    <t>https://www.zhbbroker.cn/yiiapp/home-config/get-home-set</t>
+  </si>
+  <si>
+    <t>https://www.zhbbroker.cn/yiiapp/home-config/marquees</t>
+  </si>
+  <si>
+    <t>test_user_head_img</t>
+  </si>
+  <si>
+    <t>https://www.zhbbroker.cn/yiiapp/user/user-head-img</t>
+  </si>
+  <si>
+    <t>{"version":"3.8.0","user_id":"2200234"}</t>
+  </si>
+  <si>
+    <t>test_message_info</t>
+  </si>
+  <si>
+    <t>https://www.zhbbroker.cn/yiiapp/message/inform</t>
+  </si>
+  <si>
+    <t>test_mine_infp</t>
+  </si>
+  <si>
+    <t>https://www.zhbbroker.cn/yiiapp/user/mine-info</t>
+  </si>
+  <si>
+    <t>{"version":"3.8.0","last_access_replace_time":"2016-10-01 00:00:00"}</t>
+  </si>
+  <si>
+    <t>https://www.zhbbroker.cn/yiiapp/home-config/lately-more-search-car</t>
+  </si>
+  <si>
+    <t>test_model_info</t>
+  </si>
+  <si>
+    <t>https://www.zhbbroker.cn/yiiapp/car-info/query-model-info</t>
+  </si>
+  <si>
+    <t>{"version":"3.8.0","car_model_no":"荣威"}</t>
+  </si>
+  <si>
+    <t>test_record_common_car_info</t>
+  </si>
+  <si>
+    <t>https://www.zhbbroker.cn/yiiapp/car-info/record-common-car-info</t>
+  </si>
+  <si>
+    <t>{"version":"3.8.0","license_no":"沪A12345"}</t>
+  </si>
+  <si>
+    <t>https://www.zhbbroker.cn/yiiapp/home-config/get-start-pic</t>
+  </si>
+  <si>
+    <t>test_get_my_info</t>
+  </si>
+  <si>
+    <t>https://www.zhbbroker.cn/php2/user/get_my_info.php</t>
+  </si>
+  <si>
+    <t>test_get_refund_balance</t>
+  </si>
+  <si>
+    <t>https://www.zhbbroker.cn/php2/user_refund/get_refund_balance.php</t>
+  </si>
+  <si>
+    <t>test_daily_sign</t>
+  </si>
+  <si>
+    <t>https://www.zhbbroker.cn/yiiapp/user/integrity/daily-sign</t>
+  </si>
+  <si>
+    <t>宝贝任务</t>
+  </si>
+  <si>
+    <t>https://www.zhbbroker.cn/yiiapp/user/integrity/task-info</t>
+  </si>
+  <si>
+    <t>查询车辆信息</t>
+  </si>
+  <si>
+    <t>test_record_car_info</t>
+  </si>
+  <si>
+    <t>/yiiapp/car-info/record-common-car-info</t>
+  </si>
+  <si>
+    <t>{"version": "3.8.0","license_no": "皖B33823","province":"安徽","city":"合肥","provider":"official"}</t>
+  </si>
+  <si>
+    <t>根据品牌型号查询车辆</t>
+  </si>
+  <si>
+    <t>test_replenish_info</t>
+  </si>
+  <si>
+    <t>/yiiapp/car-info/replenish-info</t>
+  </si>
+  <si>
+    <t>{"version":"3.8.0","license_no":"皖B33823","is_new_car":"0","charged_matched":"0","owner_name":"静雅","reg_date":"2016-07-20","car_model_no":"大众FV7140BAMGG轿车","engine_no":"587463","frame_no":"UE84F55JFJ44FK4K1","selected_car_model_detail":{"engine_desc":"1.4L","gearbox_name":"手动档","market_date":"2013","price":67800,"standard_name":"大众FV7140BAMGG轿车","seat":5,"description":"大众FV7140BAMGG轿车 手动档 时尚型 国Ⅳ 1.4L 手动档 5座 2013款 参考价：￥67800.0","user_defined":"0"},"seat_num":"5","owner_id_no":"342425198101156924","insured_id_no":"","applicant_id_no":"","is_special_car":"0","is_loaned":"0","price":"6.78"}</t>
+  </si>
+  <si>
+    <t>更新车辆信息</t>
+  </si>
+  <si>
+    <t>test_upfate_car_info</t>
+  </si>
+  <si>
+    <t>/yiiapp/car-info/update</t>
+  </si>
+  <si>
+    <t>{"version":"3.8.0","car_id":"","license_no":"皖B33823","owner_name":"静雅","car_model_no":"大众FV7140BAMGG轿车","engine_no":"587463","selected_car_model_detail":{"engine_desc":"1.4L","gearbox_name":"手动档","market_date":"2013","price":67800,"standard_name":"大众FV7140BAMGG轿车","seat":5,"description":"大众FV7140BAMGG轿车 手动档 时尚型 国Ⅳ 1.4L 手动档 5座 2013款 参考价：￥67800.0","user_defined":"0"},"seat_num":"5","frame_no":"UE84F55JFJ44FK4K1","province":"安徽","city":"合肥","district":"","owner_id_no":"342425198101156924","owner_mobile": "15821732186","insured_name":"静雅","insured_mobile":"15821732186","insured_id_no":"342425198101156924","applicant_name":"静雅","applicant_mobile":"15821732186","applicant_id_no":"342425198101156924","is_special_car":"0","is_loaned":"0","reg_date":"2016-07-20","validate_start_date":"0"}</t>
+  </si>
+  <si>
+    <t>test_record_price</t>
+  </si>
+  <si>
+    <t>/yiiapp/car-ins/record-price-info</t>
+  </si>
+  <si>
+    <t>{"version":"3.8.0","car_id":"","license_no":"皖B33823","frame_no":"UE84F55JFJ44FK4K1","insurance_company":"","post_time_stamp":"","force_only":"0","choose_force":"1","car_broken":"1","car_burn":"0","car_rob":"0","wade_water":"0","third_party":"500000","driver_seat":"10000","passenger_seat":"10000","glass_broken":"0","scratch":"0","specify_repair_factory":"0","find_no_third_party":"0","third_party_double_on_holiday":"0","non_deduct_car_broken":"1","non_deduct_car_rob":"0","non_deduct_driver_seat":"1","non_deduct_passenger_seat":"1","non_deduct_third_party":"1","non_deduct_scratch":"0","non_deduct_wade_water":"0","non_deduct_car_burn":"0","price_channel":"more"}</t>
+  </si>
+  <si>
+    <t>查找投保机构列表</t>
+  </si>
+  <si>
+    <t>test_price_configuration_merge</t>
+  </si>
+  <si>
+    <t>/yiiapp/car-ins/price-configuration-merge</t>
+  </si>
+  <si>
+    <t>{"version":"","province":"","city":""}</t>
+  </si>
+  <si>
+    <t>/yiiapp/car-info/get-car-model-no-info</t>
+  </si>
+  <si>
+    <t>{"version":"","car_model_no":"","insurance_company":"","provider":"","province":"","city":"","district":""}</t>
+  </si>
+  <si>
+    <t>添加/修改车辆信息</t>
+  </si>
+  <si>
+    <t>test_replenish_info_merge</t>
+  </si>
+  <si>
+    <t>/yiiapp/car-info/replenish-info-merge</t>
+  </si>
+  <si>
+    <t>{"version":"","is_new_car":"","add_only":"","license_no":"","car_model_no":"","selected_car_model_detail":"","engine_no":"","frame_no":"","seat_num":"","reg_date":"","owner_name":"","owner_id_no":"","owner_mobile":"","insured_name":"","insured_mobile":"","insured_id_no":"","applicant_name":"","applicant_mobile":"","applicant_id_no":"","is_special_car":"","is_loaned":"","beneficiary":"","price":"","insured_same_as_owner":"","applicant_same_as_owner":"","provider":"","insurance_company":"","province":"","city":"","district":"","com_id":""}</t>
+  </si>
+  <si>
+    <t>报价前更新车辆信息</t>
+  </si>
+  <si>
+    <t>test_update</t>
+  </si>
+  <si>
+    <t>{"version":"","gen_new_order":"","insurance_company":"","car_id":"","province":"","city":"","district":"","com_id":"","provider":"","order_id":"","ins_start_date":"","ins_start_hour":"","force_start_date":"","force_start_hour":"","user_ins_start_date_change":"","user_force_start_date_change":"","owner_name":"","owner_id_no":"","owner_mobile":"","insured_name":"","insured_mobile":"","insured_id_no":"","applicant_name":"","applicant_mobile":"","applicant_id_no":"","license_no":"","car_model_no":"","engine_no":"","selected_car_model_detail":"","seat_num":"","frame_no":"","is_special_car":"","is_loaned":"","reg_date":""}</t>
+  </si>
+  <si>
+    <t>/yiiapp/car-ins/record-price-info-merge</t>
+  </si>
+  <si>
+    <t>{"version":"","product_source":"","order_id":"","provider":"","car_id":"","insurance_company":"","post_time_stamp":"","force_only":"","choose_force":"","car_broken":"","car_burn":"","car_rob":"","wade_water":"","third_party":"","driver_seat":"","passenger_seat":"","glass_broken":"","scratch":"","specify_repair_factory":"","find_no_third_party":"","third_party_double_on_holiday":"","non_deduct_car_broken":"","non_deduct_car_rob":"","non_deduct_driver_seat":"","non_deduct_passenger_seat":"","non_deduct_third_party":"","non_deduct_scratch":"","non_deduct_wade_water":"","non_deduct_car_burn":"","pay_tax":"","user_ins_start_date_change":"","user_force_start_date_change":"","ins_start_date":"","ins_start_hour":"","force_start_date":"","force_start_hour":"","price_channel":""}</t>
+  </si>
+  <si>
+    <t>订单查询</t>
+  </si>
+  <si>
+    <t>test_query_order_info</t>
+  </si>
+  <si>
+    <t>/yiiapp/car-ins/query-order-info</t>
+  </si>
+  <si>
+    <t>{"version":"","order_id":""}</t>
+  </si>
+  <si>
+    <t>配送地址查询</t>
+  </si>
+  <si>
+    <t>test_query_addr</t>
+  </si>
+  <si>
+    <t>/php2/addr/query_addr.php</t>
+  </si>
+  <si>
+    <t>{"version":""}</t>
+  </si>
+  <si>
+    <t>记录被保人地址</t>
+  </si>
+  <si>
+    <t>test_save_insured_address</t>
+  </si>
+  <si>
+    <t>/yiiapp/car-ins/save-insured-address</t>
+  </si>
+  <si>
+    <t>{"insured_province":"","insured_city":"","insured_district":"","insured_detail":"","owner_name":"","owner_id_no":"","license_no":"","frame_no":""}</t>
+  </si>
+  <si>
+    <t>添加寄送地址</t>
+  </si>
+  <si>
+    <t>test_address</t>
+  </si>
+  <si>
+    <t>/php2/addr/add_addr.php</t>
+  </si>
+  <si>
+    <t>{"version":"","addressee_province":"","addressee_city":"","addressee_area":"","addressee_detail":"","addressee_name":"","addressee_mobile":""}</t>
+  </si>
+  <si>
+    <t>设置地址为默认地址</t>
+  </si>
+  <si>
+    <t>test_set_addr</t>
+  </si>
+  <si>
+    <t>/php2/addr/set_def_addr.php</t>
+  </si>
+  <si>
+    <t>{"version":"","id":""}</t>
+  </si>
+  <si>
+    <t>核保</t>
+  </si>
+  <si>
+    <t>test_place_order</t>
+  </si>
+  <si>
+    <t>/yiiapp/car-ins/place-order/1.1</t>
+  </si>
+  <si>
+    <t>{"version":"","order_id":"","is_self_fetch":"","has_addressee_info":"","addressee_name":"","addressee_mobile":"","addressee_province":"","addressee_city":"","addressee_area":"","addressee_detail":"","insured_province":"","insured_city":"","insured_district":"","insured_detail":""}</t>
+  </si>
+  <si>
+    <t>单交强</t>
+  </si>
+  <si>
+    <t>test_price_ins</t>
+  </si>
+  <si>
+    <t>{"version":"","product_source":"","provider":"","car_id":"","insurance_company":"","post_time_stamp":"","force_only":"","choose_force":"","pay_tax":"","user_ins_start_date_change":"","user_force_start_date_change":"","ins_start_date":"","ins_start_hour":"","force_start_date":"","force_start_hour":"","price_channel":""}</t>
+  </si>
+  <si>
+    <t>frame_no</t>
+  </si>
+  <si>
+    <t>LSVNU2185DN092075</t>
+  </si>
+  <si>
+    <t>LVSHJCAC1EE723699</t>
+  </si>
+  <si>
+    <t>LFV2B11K7D3560457</t>
+  </si>
+  <si>
+    <t>LBEMCACAXAX205186</t>
+  </si>
+  <si>
+    <t>LDC643T20E3097716</t>
+  </si>
+  <si>
+    <t>LGXC14AA4A1112355</t>
+  </si>
+  <si>
+    <t>LDCC13L36C1215314</t>
+  </si>
+  <si>
+    <t>LS5A3BBD9CA520460</t>
+  </si>
+  <si>
+    <t>LS5A2BBR3DH039708</t>
+  </si>
+  <si>
+    <t>LVSFCFAE58F289791</t>
+  </si>
+  <si>
+    <t>LH16C2MF4BH038346</t>
+  </si>
+  <si>
+    <t>LS4AAB3D5BA064304</t>
+  </si>
+  <si>
+    <t>LSGJB84J5FY264135</t>
+  </si>
+  <si>
+    <t>LBELMBKCXEY523777</t>
+  </si>
+  <si>
+    <t>LSGJM84J0FY026753</t>
+  </si>
+  <si>
+    <t>LGBH52E05FY386829</t>
+  </si>
+  <si>
+    <t>LFV3B28R7F3059780</t>
+  </si>
+  <si>
+    <t>LGBL2AE05AY081840</t>
+  </si>
+  <si>
+    <t>LFV2A11K9E4182026</t>
+  </si>
+  <si>
+    <t>LBEMDAEC0EZ430819</t>
+  </si>
+  <si>
+    <t>LWVAA1566DA035204</t>
+  </si>
+  <si>
+    <t>LS4BDB3D29F046741</t>
+  </si>
+  <si>
+    <t>LSGJA52U3BS215771</t>
+  </si>
+  <si>
+    <t>LVVDC11B99D224345</t>
+  </si>
+  <si>
+    <t>LBERCADB4BX104711</t>
+  </si>
+  <si>
+    <t>LGBH12E239Y011734</t>
+  </si>
+  <si>
+    <t>LS5A3ABD9CB097139</t>
+  </si>
+  <si>
+    <t>LDC643T2XE3148011</t>
+  </si>
+  <si>
+    <t>LVSHCAAE1CF311371</t>
+  </si>
+  <si>
+    <t>3C4PDCFB9DT652248</t>
+  </si>
+  <si>
+    <t>LFV2A21K1G4209132</t>
+  </si>
+  <si>
+    <t>LB37422S5AL017301</t>
+  </si>
+  <si>
+    <t>LSVNV4183E2159090</t>
+  </si>
+  <si>
+    <t>LFV2A2156F3071344</t>
+  </si>
+  <si>
+    <t>LS5A3DBE6FA089004</t>
+  </si>
+  <si>
+    <t>LVSHJCAL9FE241337</t>
+  </si>
+  <si>
+    <t>LSVUH65N4C2111707</t>
+  </si>
+  <si>
+    <t>LSGBC534XGG168763</t>
+  </si>
+  <si>
+    <t>LSVNV4184F2109185</t>
+  </si>
+  <si>
+    <t>LSGGG54E1FS100459</t>
+  </si>
+  <si>
+    <t>LE4GF4HB1DL244524</t>
+  </si>
+  <si>
+    <t>LHGGK5875G2028999</t>
+  </si>
+  <si>
+    <t>LVHRM4889C5110901</t>
+  </si>
+  <si>
+    <t>LBERCBCB4FX057676</t>
+  </si>
+  <si>
+    <t>LSYYBACA5AC092228</t>
+  </si>
+  <si>
+    <t>LWVAA1566EA067197</t>
+  </si>
+  <si>
+    <t>LDC953T27G1500163</t>
+  </si>
+  <si>
+    <t>LFV3A23CXF3076191</t>
+  </si>
+  <si>
+    <t>LVRHDFML8FN375035</t>
+  </si>
+  <si>
+    <t>LGG8D2D15FZ404005</t>
+  </si>
+  <si>
+    <t>LNBMDLAA1FU111918</t>
+  </si>
+  <si>
+    <t>LGBH72E01GY061283</t>
+  </si>
+  <si>
+    <t>LDC643T26G3504912</t>
+  </si>
+  <si>
+    <t>LVRHDFAL1GN520034</t>
+  </si>
+  <si>
+    <t>LGBH52E09EY235328</t>
+  </si>
+  <si>
+    <t>LSJA16E37EG063066</t>
+  </si>
+  <si>
+    <t>LSGJA52H2DH149457</t>
+  </si>
+  <si>
+    <t>LSGPC54R1BF077475</t>
+  </si>
+  <si>
+    <t>LVVDB11B0AD261274</t>
+  </si>
+  <si>
+    <t>LVSHBFAF18F039467</t>
+  </si>
+  <si>
+    <t>L6T7824S2GN035894</t>
+  </si>
+  <si>
+    <t>LNBSCBAF7ER402201</t>
+  </si>
+  <si>
+    <t>LZWACAGA0A7128938</t>
+  </si>
+  <si>
+    <t>LZWACAGA2D6021738</t>
+  </si>
+  <si>
+    <t>LSVNV4180DN089013</t>
+  </si>
+  <si>
+    <t>LGBK22E74AY126037</t>
+  </si>
+  <si>
+    <t>LFV2A2152F3107109</t>
+  </si>
+  <si>
+    <t>LS5A3DDE6GA023227</t>
+  </si>
+  <si>
+    <t>LFV2A2158F3110726</t>
+  </si>
+  <si>
+    <t>LSVCS6A47EN124592</t>
+  </si>
+  <si>
+    <t>LVSHCAMB1EE741654</t>
+  </si>
+  <si>
+    <t>LGB1AAE32AZ032495</t>
+  </si>
+  <si>
+    <t>LS5A3BBD1AA519915</t>
+  </si>
+  <si>
+    <t>LSGKE52HXFW097955</t>
+  </si>
+  <si>
+    <t>LBV5S1100ESH69176</t>
+  </si>
+  <si>
+    <t>LFMARE2C290216585</t>
+  </si>
+  <si>
+    <t>LFV2A1BS8F4590372</t>
+  </si>
+  <si>
+    <t>WBA1A3108EP614338</t>
+  </si>
+  <si>
+    <t>LBVHZ110XHMG34093</t>
+  </si>
+  <si>
+    <t>LVRFFAML5EN582100</t>
+  </si>
+  <si>
+    <t>LGBP12E04BY040241</t>
+  </si>
+  <si>
+    <t>LVHRU184XG6028851</t>
+  </si>
+  <si>
+    <t>LBERCACBXGX038528</t>
+  </si>
+  <si>
+    <t>LDC933L28B1666125</t>
+  </si>
+  <si>
+    <t>LDC923L2260394153</t>
+  </si>
+  <si>
+    <t>LJ12EKR22G4012790</t>
+  </si>
+  <si>
+    <t>LS5A3ADE59B099680</t>
+  </si>
+  <si>
+    <t>LZWACAGA6A8158861</t>
+  </si>
+  <si>
+    <t>LSGSA52S2ED273320</t>
+  </si>
+  <si>
+    <t>LS5A2ABR1DH041094</t>
+  </si>
+  <si>
+    <t>LVVDB11B0GE023122</t>
+  </si>
+  <si>
+    <t>LVGBH42K2DG749965</t>
+  </si>
+  <si>
+    <t>LBERCACB5FX888436</t>
+  </si>
+  <si>
+    <t>LJ12EKR28F4839885</t>
+  </si>
+  <si>
+    <t>LH17CKJF44H029075</t>
+  </si>
+  <si>
+    <t>LVSHJCAB6EE745639</t>
+  </si>
+  <si>
+    <t>LSYYBACA48K002874</t>
+  </si>
+  <si>
+    <t>LS5A33BW4AB070375</t>
+  </si>
+  <si>
+    <t>LGBH12E24CY139178</t>
+  </si>
+  <si>
+    <t>LFMAP86C7F0533226</t>
+  </si>
+  <si>
+    <t>/yiiapp/system/user-login</t>
+  </si>
+  <si>
+    <t>{"mobile": "10000000134", "verify_code": "9527"}</t>
+  </si>
+  <si>
+    <t>test_login_nullcode</t>
+  </si>
+  <si>
+    <t>{"mobile": "10000000134", "verify_code": ""}</t>
+  </si>
+  <si>
+    <t>test_login_errorcode</t>
+  </si>
+  <si>
+    <t>{"mobile": "10000000134", "verify_code": "9537"}</t>
+  </si>
+  <si>
     <t>/yiiapp/car-info/query-model-info</t>
   </si>
   <si>
@@ -1161,19 +1177,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1217,22 +1226,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1254,16 +1255,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -1279,7 +1309,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1295,6 +1333,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -1302,44 +1348,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1360,19 +1369,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1384,25 +1387,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1414,25 +1405,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1444,13 +1423,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1468,7 +1441,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1480,7 +1483,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1492,13 +1501,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1510,31 +1531,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1549,25 +1558,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1577,6 +1577,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1598,6 +1607,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1608,16 +1626,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1636,162 +1654,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1799,37 +1808,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2151,10 +2157,386 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="13.2" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="11.8333333333333" customWidth="1"/>
+    <col min="3" max="3" width="11.6666666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.16666666666667" style="2"/>
+    <col min="5" max="5" width="26.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.5" customWidth="1"/>
+    <col min="8" max="8" width="16.1666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14" spans="1:8">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="84" customHeight="1" spans="1:8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" ht="409.5" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" ht="119" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" ht="409.5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" ht="40" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" ht="66" spans="1:8">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" ht="106" spans="1:8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="H8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" ht="93" spans="1:8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" ht="66" spans="1:8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" ht="27" spans="1:8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" ht="53" spans="1:8">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>263</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" ht="40" spans="1:8">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>276</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -2205,7 +2587,7 @@
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F2" t="s">
@@ -2240,7 +2622,7 @@
       <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2257,7 +2639,7 @@
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>21</v>
       </c>
       <c r="F4" t="s">
@@ -2266,7 +2648,7 @@
       <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2292,7 +2674,7 @@
       <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2305,7 +2687,262 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="13.2" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="16.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="9.16666666666667" style="2"/>
+    <col min="5" max="5" width="18.8833333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.5" customWidth="1"/>
+    <col min="8" max="8" width="18.8333333333333" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" ht="27" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" ht="27" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" ht="238" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" ht="40" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" ht="27" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" ht="53" spans="1:8">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" ht="409.5" spans="1:8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" ht="40" spans="1:8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" ht="40" spans="1:8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:F16"/>
@@ -2323,7 +2960,7 @@
   <sheetData>
     <row r="1" ht="14" spans="1:6">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2349,36 +2986,36 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>26</v>
+        <v>55</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:6">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>30</v>
+      <c r="D3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:6">
@@ -2391,8 +3028,8 @@
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>31</v>
+      <c r="D4" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -2411,8 +3048,8 @@
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>32</v>
+      <c r="D5" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -2429,16 +3066,16 @@
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" ht="14" spans="1:6">
@@ -2449,10 +3086,10 @@
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>37</v>
+        <v>65</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -2469,16 +3106,16 @@
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:6">
@@ -2492,7 +3129,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -2509,16 +3146,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>43</v>
+        <v>71</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" ht="27" spans="1:6">
@@ -2529,16 +3166,16 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>46</v>
+        <v>74</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" ht="27" spans="1:6">
@@ -2552,7 +3189,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -2569,10 +3206,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>50</v>
+        <v>78</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -2589,10 +3226,10 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -2609,10 +3246,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -2629,10 +3266,10 @@
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -2652,7 +3289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H5"/>
@@ -2671,7 +3308,7 @@
   <sheetData>
     <row r="1" ht="14" spans="1:8">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2703,19 +3340,19 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>14</v>
@@ -2729,19 +3366,19 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>14</v>
@@ -2755,19 +3392,19 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>14</v>
@@ -2781,19 +3418,19 @@
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>14</v>
@@ -2806,12 +3443,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -2825,7 +3462,7 @@
   <sheetData>
     <row r="1" ht="14" spans="1:8">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2857,22 +3494,22 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" ht="40" spans="1:8">
@@ -2883,22 +3520,22 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" ht="119" spans="1:8">
@@ -2909,22 +3546,22 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" ht="132" spans="1:8">
@@ -2935,22 +3572,22 @@
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" ht="172" spans="1:8">
@@ -2961,22 +3598,22 @@
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:8">
@@ -2987,22 +3624,22 @@
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:8">
@@ -3013,19 +3650,19 @@
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -3037,19 +3674,19 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -3061,19 +3698,19 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -3085,19 +3722,19 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -3109,22 +3746,22 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="H12" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" ht="66" spans="1:7">
@@ -3135,19 +3772,19 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3157,7 +3794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:A101"/>
@@ -3173,507 +3810,507 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -3682,7 +4319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:F4"/>
@@ -3700,7 +4337,7 @@
   <sheetData>
     <row r="1" ht="14" spans="1:6">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3719,63 +4356,63 @@
       </c>
     </row>
     <row r="2" ht="27" spans="1:6">
-      <c r="A2" s="11">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>221</v>
+      <c r="D2" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:6">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>223</v>
+      <c r="B3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:6">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>225</v>
+      <c r="B4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3784,219 +4421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="13.2" outlineLevelCol="7"/>
-  <cols>
-    <col min="4" max="5" width="9.16666666666667" style="2"/>
-    <col min="7" max="7" width="28.5" customWidth="1"/>
-    <col min="8" max="8" width="18.8333333333333" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14" spans="1:8">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" ht="40" spans="3:8">
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" ht="238" spans="3:8">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" ht="66" spans="3:8">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" ht="27" spans="1:8">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" ht="80" spans="1:8">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" ht="409.5" spans="1:8">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" ht="53" spans="4:8">
-      <c r="D8" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>241</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" ht="40" spans="4:8">
-      <c r="D9" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H13"/>
@@ -4016,7 +4441,7 @@
   <sheetData>
     <row r="1" ht="14" spans="1:8">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4048,22 +4473,22 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" ht="304" spans="1:8">
@@ -4074,22 +4499,22 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" ht="409.5" spans="1:8">
@@ -4100,22 +4525,22 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" ht="106" spans="1:8">
@@ -4127,16 +4552,16 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -4148,22 +4573,22 @@
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" ht="40" spans="1:8">
@@ -4174,22 +4599,22 @@
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" ht="66" spans="1:8">
@@ -4200,22 +4625,22 @@
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" ht="106" spans="1:8">
@@ -4226,22 +4651,22 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="H9" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" ht="93" spans="1:8">
@@ -4252,22 +4677,22 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H10" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" ht="66" spans="1:8">
@@ -4278,19 +4703,19 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -4302,19 +4727,19 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -4326,382 +4751,22 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="13.2" outlineLevelCol="7"/>
-  <cols>
-    <col min="2" max="2" width="11.8333333333333" customWidth="1"/>
-    <col min="3" max="3" width="11.6666666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.16666666666667" style="2"/>
-    <col min="5" max="5" width="26.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28.5" customWidth="1"/>
-    <col min="8" max="8" width="16.1666666666667" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14" spans="1:8">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="84" customHeight="1" spans="1:8">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="3" ht="409.5" spans="1:8">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="4" ht="119" spans="1:8">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="5" ht="409.5" spans="1:8">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="6" ht="40" spans="1:8">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="7" ht="66" spans="1:8">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="8" ht="106" spans="1:8">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="H8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="9" ht="93" spans="1:8">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="10" ht="66" spans="1:8">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="11" ht="27" spans="1:8">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="12" ht="53" spans="1:8">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>258</v>
-      </c>
-      <c r="H12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" ht="40" spans="1:8">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>271</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>265</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
